--- a/model_table_2.xlsx
+++ b/model_table_2.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24816"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25007"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="31240" yWindow="0" windowWidth="18580" windowHeight="28280" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -161,12 +161,12 @@
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -503,7 +503,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -527,13 +527,13 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D2" t="s">
@@ -544,11 +544,11 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="2"/>
-      <c r="B3" s="3" t="s">
+      <c r="A3" s="5"/>
+      <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D3" t="s">
@@ -559,7 +559,7 @@
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="2"/>
+      <c r="A4" s="5"/>
       <c r="B4" t="s">
         <v>2</v>
       </c>
@@ -571,11 +571,11 @@
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="2"/>
-      <c r="B5" s="3" t="s">
+      <c r="A5" s="5"/>
+      <c r="B5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D5" t="s">
@@ -586,11 +586,11 @@
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="2"/>
-      <c r="B6" s="5" t="s">
+      <c r="A6" s="5"/>
+      <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D6" t="s">
@@ -601,7 +601,7 @@
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="2"/>
+      <c r="A7" s="5"/>
       <c r="B7" t="s">
         <v>11</v>
       </c>
@@ -613,7 +613,7 @@
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B8" t="s">
@@ -627,11 +627,11 @@
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="2"/>
-      <c r="B9" s="4" t="s">
+      <c r="A9" s="5"/>
+      <c r="B9" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D9" t="s">
@@ -642,11 +642,11 @@
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="2"/>
-      <c r="B10" s="5" t="s">
+      <c r="A10" s="5"/>
+      <c r="B10" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D10" t="s">
@@ -657,11 +657,11 @@
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="2"/>
-      <c r="B11" s="3" t="s">
+      <c r="A11" s="5"/>
+      <c r="B11" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D11" t="s">
@@ -672,11 +672,11 @@
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="2"/>
-      <c r="B12" s="3" t="s">
+      <c r="A12" s="5"/>
+      <c r="B12" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D12" t="s">
@@ -687,11 +687,11 @@
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="2"/>
-      <c r="B13" s="5" t="s">
+      <c r="A13" s="5"/>
+      <c r="B13" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D13" t="s">
@@ -702,7 +702,7 @@
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="2"/>
+      <c r="A14" s="5"/>
       <c r="B14" t="s">
         <v>2</v>
       </c>
@@ -714,7 +714,7 @@
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="2"/>
+      <c r="A15" s="5"/>
       <c r="B15" t="s">
         <v>6</v>
       </c>
@@ -726,7 +726,7 @@
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="2"/>
+      <c r="A16" s="5"/>
       <c r="B16" t="s">
         <v>11</v>
       </c>

--- a/model_table_2.xlsx
+++ b/model_table_2.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25007"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24816"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="23520" yWindow="0" windowWidth="26300" windowHeight="28280" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -503,7 +503,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -587,10 +587,10 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="5"/>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D6" t="s">
@@ -688,10 +688,10 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="5"/>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D13" t="s">
